--- a/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
@@ -1298,7 +1298,7 @@
         <v>85</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>101</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="110">
   <si>
     <t>Sezione</t>
   </si>
@@ -317,7 +317,31 @@
     <t>Autorità mittente</t>
   </si>
   <si>
-    <t>evento.trascrizioneCittadinanza.autoritaMittente</t>
+    <t>evento.trascrizioneCittadinanza.atto.enteEstero</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
   </si>
 </sst>
 </file>
@@ -376,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -385,8 +409,8 @@
     <col min="1" max="1" width="37.9921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="50.296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1355,7 +1379,7 @@
         <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>8</v>
@@ -1364,7 +1388,7 @@
         <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1375,16 +1399,16 @@
         <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1395,16 +1419,16 @@
         <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1415,7 +1439,7 @@
         <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>34</v>
@@ -1424,9 +1448,89 @@
         <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F54" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="112">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -400,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -412,6 +418,7 @@
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -433,85 +440,100 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -533,1005 +555,1158 @@
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -56,7 +56,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193.6</t>
+    <t>193.21</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -418,7 +418,7 @@
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="113">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,31 +32,34 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Decreto del Tribunale</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di cittadinanza dell'interessato</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita dell'interessato</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.21</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Decreto del Tribunale</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di cittadinanza dell'interessato</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita dell'interessato</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.21</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -556,1157 +559,1157 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="115">
   <si>
     <t>Sezione</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalità</t>
@@ -409,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -984,7 +990,7 @@
         <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>38</v>
@@ -1076,7 +1082,7 @@
         <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>38</v>
@@ -1191,7 +1197,7 @@
         <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>38</v>
@@ -1263,7 +1269,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>85</v>
@@ -1280,7 +1286,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -1289,7 +1295,7 @@
         <v>29</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1300,19 +1306,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1323,16 +1329,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>92</v>
@@ -1346,7 +1352,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>93</v>
@@ -1355,7 +1361,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>94</v>
@@ -1369,7 +1375,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>95</v>
@@ -1378,7 +1384,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>96</v>
@@ -1392,7 +1398,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>97</v>
@@ -1401,7 +1407,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>98</v>
@@ -1415,7 +1421,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>99</v>
@@ -1424,7 +1430,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>100</v>
@@ -1438,7 +1444,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>101</v>
@@ -1447,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>102</v>
@@ -1461,19 +1467,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1484,16 +1490,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>92</v>
@@ -1507,7 +1513,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>93</v>
@@ -1516,7 +1522,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>94</v>
@@ -1530,19 +1536,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1553,7 +1559,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>107</v>
@@ -1562,7 +1568,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>108</v>
@@ -1576,19 +1582,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1599,7 +1605,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>97</v>
@@ -1608,7 +1614,7 @@
         <v>37</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>98</v>
@@ -1622,7 +1628,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>99</v>
@@ -1631,7 +1637,7 @@
         <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>100</v>
@@ -1645,7 +1651,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>101</v>
@@ -1654,7 +1660,7 @@
         <v>37</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>102</v>
@@ -1668,19 +1674,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1691,7 +1697,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>111</v>
@@ -1700,7 +1706,7 @@
         <v>37</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>112</v>
@@ -1709,6 +1715,29 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -252,6 +252,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -415,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1220,7 +1244,7 @@
         <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>38</v>
@@ -1243,7 +1267,7 @@
         <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>38</v>
@@ -1266,7 +1290,7 @@
         <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>38</v>
@@ -1289,10 +1313,10 @@
         <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>87</v>
@@ -1309,16 +1333,16 @@
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1329,7 +1353,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>90</v>
@@ -1338,10 +1362,10 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1352,19 +1376,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1375,19 +1399,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1398,19 +1422,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1421,16 +1445,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>100</v>
@@ -1444,7 +1468,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>101</v>
@@ -1453,7 +1477,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>102</v>
@@ -1467,7 +1491,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>103</v>
@@ -1476,7 +1500,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>104</v>
@@ -1490,19 +1514,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1513,19 +1537,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1536,19 +1560,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1559,19 +1583,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1582,19 +1606,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1605,19 +1629,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1628,19 +1652,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1651,19 +1675,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1674,19 +1698,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1697,19 +1721,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C56" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1720,24 +1744,116 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="B58" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="2" t="s">
+      <c r="E58" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
   </si>
   <si>
     <t>Sesso</t>
@@ -439,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -830,7 +836,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>38</v>
@@ -922,7 +928,7 @@
         <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>38</v>
@@ -1037,7 +1043,7 @@
         <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>38</v>
@@ -1129,7 +1135,7 @@
         <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>38</v>
@@ -1336,7 +1342,7 @@
         <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>38</v>
@@ -1408,7 +1414,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>95</v>
@@ -1425,7 +1431,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
@@ -1434,7 +1440,7 @@
         <v>29</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1445,19 +1451,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1468,16 +1474,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>102</v>
@@ -1491,7 +1497,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>103</v>
@@ -1500,7 +1506,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>104</v>
@@ -1514,7 +1520,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>105</v>
@@ -1523,7 +1529,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>106</v>
@@ -1537,7 +1543,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>107</v>
@@ -1546,7 +1552,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>108</v>
@@ -1560,7 +1566,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>109</v>
@@ -1569,7 +1575,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>110</v>
@@ -1583,7 +1589,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>111</v>
@@ -1592,7 +1598,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>112</v>
@@ -1606,19 +1612,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1629,16 +1635,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>102</v>
@@ -1652,7 +1658,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>103</v>
@@ -1661,7 +1667,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>104</v>
@@ -1675,19 +1681,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1698,7 +1704,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>117</v>
@@ -1707,7 +1713,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>118</v>
@@ -1721,19 +1727,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1744,7 +1750,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>107</v>
@@ -1753,7 +1759,7 @@
         <v>37</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>108</v>
@@ -1767,7 +1773,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>109</v>
@@ -1776,7 +1782,7 @@
         <v>37</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>110</v>
@@ -1790,7 +1796,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>111</v>
@@ -1799,7 +1805,7 @@
         <v>37</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>112</v>
@@ -1813,19 +1819,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C60" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1836,7 +1842,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>121</v>
@@ -1845,7 +1851,7 @@
         <v>37</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>122</v>
@@ -1854,6 +1860,29 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -445,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1112,7 +1118,7 @@
         <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>38</v>
@@ -1135,7 +1141,7 @@
         <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>38</v>
@@ -1365,7 +1371,7 @@
         <v>90</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>38</v>
@@ -1437,7 +1443,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>97</v>
@@ -1454,7 +1460,7 @@
         <v>35</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -1463,7 +1469,7 @@
         <v>29</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1474,19 +1480,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1497,16 +1503,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>104</v>
@@ -1520,7 +1526,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>105</v>
@@ -1529,7 +1535,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>106</v>
@@ -1543,7 +1549,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>107</v>
@@ -1552,7 +1558,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>108</v>
@@ -1566,7 +1572,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>109</v>
@@ -1575,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>110</v>
@@ -1589,7 +1595,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>111</v>
@@ -1598,7 +1604,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>112</v>
@@ -1612,7 +1618,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>113</v>
@@ -1621,7 +1627,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>114</v>
@@ -1635,19 +1641,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1658,16 +1664,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>104</v>
@@ -1681,7 +1687,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>105</v>
@@ -1690,7 +1696,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>106</v>
@@ -1704,19 +1710,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1727,7 +1733,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>119</v>
@@ -1736,7 +1742,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>120</v>
@@ -1750,19 +1756,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1773,7 +1779,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>109</v>
@@ -1782,7 +1788,7 @@
         <v>37</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>110</v>
@@ -1796,7 +1802,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>111</v>
@@ -1805,7 +1811,7 @@
         <v>37</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>112</v>
@@ -1819,7 +1825,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>113</v>
@@ -1828,7 +1834,7 @@
         <v>37</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>114</v>
@@ -1842,19 +1848,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C61" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1865,7 +1871,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>123</v>
@@ -1874,7 +1880,7 @@
         <v>37</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>124</v>
@@ -1883,6 +1889,29 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -315,6 +315,81 @@
   </si>
   <si>
     <t>ulterioreCittadinanza</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Dichiarazione rinuncia presso il consolato</t>
@@ -451,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -461,7 +536,7 @@
     <col min="2" max="2" width="50.296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1509,7 +1584,7 @@
         <v>102</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>103</v>
@@ -1521,7 +1596,7 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
@@ -1529,22 +1604,22 @@
         <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48">
@@ -1552,22 +1627,22 @@
         <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49">
@@ -1575,22 +1650,22 @@
         <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50">
@@ -1598,22 +1673,22 @@
         <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51">
@@ -1621,22 +1696,22 @@
         <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52">
@@ -1647,7 +1722,7 @@
         <v>115</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>103</v>
@@ -1659,139 +1734,139 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1802,19 +1877,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1825,19 +1900,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1848,19 +1923,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1871,19 +1946,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1894,24 +1969,300 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E63" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="2" t="s">
+      <c r="B64" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -392,13 +392,13 @@
     <t>tipologia</t>
   </si>
   <si>
-    <t>Dichiarazione rinuncia presso il consolato</t>
+    <t>Autorità mittente</t>
   </si>
   <si>
     <t>Data formazione documento</t>
   </si>
   <si>
-    <t>evento.enteDichiarante</t>
+    <t>evento.trascrizioneCittadinanza.atto.enteEstero</t>
   </si>
   <si>
     <t>dataTrascrizione</t>
@@ -416,6 +416,18 @@
     <t>nomeEnte</t>
   </si>
   <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
     <t>Provincia ente</t>
   </si>
   <si>
@@ -438,24 +450,6 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Autorità mittente</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneCittadinanza.atto.enteEstero</t>
-  </si>
-  <si>
-    <t>Stato ente</t>
-  </si>
-  <si>
-    <t>nazioneEnte</t>
-  </si>
-  <si>
-    <t>Stato ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeNazioneEnte</t>
   </si>
   <si>
     <t>Anagrafica Consolato</t>
@@ -526,13 +520,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.9921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="50.296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
@@ -1975,7 +1969,7 @@
         <v>138</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>128</v>
@@ -1998,7 +1992,7 @@
         <v>140</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>128</v>
@@ -2015,19 +2009,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2038,19 +2032,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2061,19 +2055,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2084,185 +2078,24 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Allegati</t>
   </si>
   <si>
-    <t>Decreto del Tribunale</t>
+    <t>Copia dell'atto di cittadinanza che contiene l'esito di accertamento rilasciato dal consolato</t>
   </si>
   <si>
     <t>SI</t>
@@ -47,12 +47,12 @@
     <t/>
   </si>
   <si>
-    <t>Copia integrale dell'atto di cittadinanza dell'interessato</t>
-  </si>
-  <si>
     <t>Copia integrale dell'atto di nascita dell'interessato</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -125,9 +125,6 @@
     <t>Cognome</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
@@ -308,6 +305,12 @@
     <t>flagFirmatario</t>
   </si>
   <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
+  </si>
+  <si>
     <t>Ulteriore cittadinanza di cui è in possesso</t>
   </si>
   <si>
@@ -426,30 +429,6 @@
   </si>
   <si>
     <t>nomeNazioneEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Comune ente</t>
-  </si>
-  <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
   </si>
   <si>
     <t>Anagrafica Consolato</t>
@@ -520,14 +499,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="81.5703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -589,7 +568,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -606,10 +585,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -628,49 +607,49 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -678,7 +657,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -687,7 +666,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
@@ -701,7 +680,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -710,7 +689,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
@@ -724,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -733,7 +712,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
@@ -744,19 +723,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
@@ -770,7 +749,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -779,7 +758,7 @@
         <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
@@ -793,7 +772,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -802,7 +781,7 @@
         <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -813,19 +792,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -839,16 +818,16 @@
         <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -862,16 +841,16 @@
         <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -885,16 +864,16 @@
         <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -908,16 +887,16 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -931,16 +910,16 @@
         <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -954,16 +933,16 @@
         <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -977,16 +956,16 @@
         <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -1000,16 +979,16 @@
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -1023,16 +1002,16 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -1046,16 +1025,16 @@
         <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -1069,16 +1048,16 @@
         <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1092,16 +1071,16 @@
         <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1115,16 +1094,16 @@
         <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1138,16 +1117,16 @@
         <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1161,16 +1140,16 @@
         <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1184,16 +1163,16 @@
         <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1207,16 +1186,16 @@
         <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1230,16 +1209,16 @@
         <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1253,16 +1232,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1276,16 +1255,16 @@
         <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1299,16 +1278,16 @@
         <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1322,16 +1301,16 @@
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1345,16 +1324,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1368,16 +1347,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1391,16 +1370,16 @@
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1414,16 +1393,16 @@
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1437,16 +1416,16 @@
         <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1460,16 +1439,16 @@
         <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1483,16 +1462,16 @@
         <v>35</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1506,16 +1485,16 @@
         <v>35</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1529,7 +1508,7 @@
         <v>35</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -1538,7 +1517,7 @@
         <v>29</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1552,7 +1531,7 @@
         <v>35</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -1561,7 +1540,7 @@
         <v>29</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1572,131 +1551,131 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>19</v>
@@ -1705,44 +1684,44 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>22</v>
@@ -1751,116 +1730,116 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1871,19 +1850,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1894,19 +1873,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1917,19 +1896,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1940,19 +1919,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1963,19 +1942,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1986,116 +1965,24 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Allegati</t>
   </si>
   <si>
-    <t>Copia dell'atto di cittadinanza che contiene l'esito di accertamento rilasciato dal consolato</t>
+    <t>Decreto del Tribunale</t>
   </si>
   <si>
     <t>SI</t>
@@ -47,84 +47,87 @@
     <t/>
   </si>
   <si>
+    <t>Copia integrale dell'atto di cittadinanza dell'interessato</t>
+  </si>
+  <si>
     <t>Copia integrale dell'atto di nascita dell'interessato</t>
   </si>
   <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.21</t>
+  </si>
+  <si>
+    <t>Si puo' ignorare la sezione per</t>
+  </si>
+  <si>
+    <t>Formazione atto</t>
+  </si>
+  <si>
+    <t>Numero comunale</t>
+  </si>
+  <si>
+    <t>evento</t>
+  </si>
+  <si>
+    <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
+    <t>Data formazione</t>
+  </si>
+  <si>
+    <t>dataformazione</t>
+  </si>
+  <si>
+    <t>Ora formazione</t>
+  </si>
+  <si>
+    <t>ora</t>
+  </si>
+  <si>
+    <t>Minuti formazione</t>
+  </si>
+  <si>
+    <t>minuto</t>
+  </si>
+  <si>
+    <t>Estremi evento</t>
+  </si>
+  <si>
+    <t>Esito accertamento</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneCittadinanza</t>
+  </si>
+  <si>
+    <t>esitoAccertamento</t>
+  </si>
+  <si>
+    <t>Testo libero</t>
+  </si>
+  <si>
+    <t>testoLibero</t>
+  </si>
+  <si>
+    <t>Data Richiesta</t>
+  </si>
+  <si>
+    <t>dataComunicazione</t>
+  </si>
+  <si>
+    <t>Intestatario</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
     <t>NO</t>
   </si>
   <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.21</t>
-  </si>
-  <si>
-    <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formazione atto</t>
-  </si>
-  <si>
-    <t>Numero comunale</t>
-  </si>
-  <si>
-    <t>evento</t>
-  </si>
-  <si>
-    <t>numeroatto</t>
-  </si>
-  <si>
-    <t>obbligatoria</t>
-  </si>
-  <si>
-    <t>Data formazione</t>
-  </si>
-  <si>
-    <t>dataformazione</t>
-  </si>
-  <si>
-    <t>Ora formazione</t>
-  </si>
-  <si>
-    <t>ora</t>
-  </si>
-  <si>
-    <t>Minuti formazione</t>
-  </si>
-  <si>
-    <t>minuto</t>
-  </si>
-  <si>
-    <t>Estremi evento</t>
-  </si>
-  <si>
-    <t>Esito accertamento</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneCittadinanza</t>
-  </si>
-  <si>
-    <t>esitoAccertamento</t>
-  </si>
-  <si>
-    <t>Testo libero</t>
-  </si>
-  <si>
-    <t>testoLibero</t>
-  </si>
-  <si>
-    <t>Data Richiesta</t>
-  </si>
-  <si>
-    <t>dataComunicazione</t>
-  </si>
-  <si>
-    <t>Intestatario</t>
-  </si>
-  <si>
-    <t>Cognome</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
@@ -305,12 +308,6 @@
     <t>flagFirmatario</t>
   </si>
   <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
-  </si>
-  <si>
     <t>Ulteriore cittadinanza di cui è in possesso</t>
   </si>
   <si>
@@ -429,6 +426,30 @@
   </si>
   <si>
     <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
   </si>
   <si>
     <t>Anagrafica Consolato</t>
@@ -499,14 +520,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="81.5703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -568,7 +589,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -585,71 +606,71 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -657,7 +678,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -666,7 +687,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
@@ -680,7 +701,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -689,7 +710,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
@@ -703,7 +724,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -712,7 +733,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
@@ -723,19 +744,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
@@ -749,7 +770,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -758,7 +779,7 @@
         <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
@@ -772,7 +793,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -781,7 +802,7 @@
         <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -792,19 +813,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -818,16 +839,16 @@
         <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -841,16 +862,16 @@
         <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -864,16 +885,16 @@
         <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -887,16 +908,16 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -910,16 +931,16 @@
         <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -933,16 +954,16 @@
         <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -956,16 +977,16 @@
         <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -979,16 +1000,16 @@
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -1002,16 +1023,16 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -1025,16 +1046,16 @@
         <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -1048,16 +1069,16 @@
         <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1071,16 +1092,16 @@
         <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1094,16 +1115,16 @@
         <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1117,16 +1138,16 @@
         <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1140,16 +1161,16 @@
         <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1163,16 +1184,16 @@
         <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1186,16 +1207,16 @@
         <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1209,16 +1230,16 @@
         <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1232,16 +1253,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1255,16 +1276,16 @@
         <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1278,16 +1299,16 @@
         <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1301,16 +1322,16 @@
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1324,16 +1345,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1347,16 +1368,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1370,16 +1391,16 @@
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1393,16 +1414,16 @@
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1416,16 +1437,16 @@
         <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1439,16 +1460,16 @@
         <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1462,16 +1483,16 @@
         <v>35</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1485,16 +1506,16 @@
         <v>35</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1508,7 +1529,7 @@
         <v>35</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -1517,7 +1538,7 @@
         <v>29</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1531,7 +1552,7 @@
         <v>35</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -1540,7 +1561,7 @@
         <v>29</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1551,131 +1572,131 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>19</v>
@@ -1684,44 +1705,44 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>22</v>
@@ -1730,116 +1751,116 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1850,19 +1871,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1873,19 +1894,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1896,19 +1917,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1919,19 +1940,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1942,19 +1963,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1965,24 +1986,116 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="2" t="s">
+      <c r="C65" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -499,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -913,7 +925,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>37</v>
@@ -936,7 +948,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>37</v>
@@ -982,7 +994,7 @@
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>37</v>
@@ -1005,7 +1017,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>37</v>
@@ -1097,7 +1109,7 @@
         <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>37</v>
@@ -1120,7 +1132,7 @@
         <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>37</v>
@@ -1143,7 +1155,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>37</v>
@@ -1166,7 +1178,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>37</v>
@@ -1419,7 +1431,7 @@
         <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>37</v>
@@ -1442,7 +1454,7 @@
         <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>37</v>
@@ -1488,7 +1500,7 @@
         <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>37</v>
@@ -1514,7 +1526,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>100</v>
@@ -1531,16 +1543,16 @@
         <v>35</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1551,76 +1563,76 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>111</v>
@@ -1629,7 +1641,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>112</v>
@@ -1638,12 +1650,12 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>113</v>
@@ -1652,7 +1664,7 @@
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>114</v>
@@ -1661,12 +1673,12 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>115</v>
@@ -1675,113 +1687,113 @@
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>123</v>
@@ -1790,7 +1802,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>124</v>
@@ -1799,12 +1811,12 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>125</v>
@@ -1813,7 +1825,7 @@
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>126</v>
@@ -1822,67 +1834,67 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>134</v>
@@ -1896,7 +1908,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>135</v>
@@ -1905,7 +1917,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>136</v>
@@ -1919,7 +1931,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>137</v>
@@ -1928,7 +1940,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>138</v>
@@ -1942,16 +1954,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>140</v>
@@ -1965,16 +1977,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>142</v>
@@ -1983,6 +1995,52 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>20</v>
       </c>
     </row>
